--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_40pct/Rankings/estadisticos_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_40pct/Rankings/estadisticos_Lineal_No_Estacionario_ARIMA.xlsx
@@ -46,19 +46,19 @@
     <t>Sieve Bootstrap</t>
   </si>
   <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
     <t>LSPM</t>
   </si>
   <si>
+    <t>MCPS</t>
+  </si>
+  <si>
+    <t>AV-MCPS</t>
+  </si>
+  <si>
     <t>DeepAR</t>
-  </si>
-  <si>
-    <t>AV-MCPS</t>
-  </si>
-  <si>
-    <t>MCPS</t>
-  </si>
-  <si>
-    <t>LSPMW</t>
   </si>
   <si>
     <t>EnCQR-LSTM</t>
@@ -465,28 +465,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.5501904325073234</v>
+        <v>0.5513008456036581</v>
       </c>
       <c r="C2">
-        <v>0.4924981921105987</v>
+        <v>0.4775970528185</v>
       </c>
       <c r="D2">
-        <v>0.2807858781271962</v>
+        <v>0.2821005293656824</v>
       </c>
       <c r="E2">
-        <v>0.5103430767554445</v>
+        <v>0.5116997944321865</v>
       </c>
       <c r="F2">
-        <v>0.2133100253987114</v>
+        <v>0.2073951226355272</v>
       </c>
       <c r="G2">
-        <v>1.328149569027094</v>
+        <v>1.73487747311545</v>
       </c>
       <c r="H2">
-        <v>0.3239252981991221</v>
+        <v>0.341410769960494</v>
       </c>
       <c r="I2">
-        <v>0.7127259598915208</v>
+        <v>0.7184293938999124</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -494,28 +494,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.9306532945678907</v>
+        <v>1.093288041511677</v>
       </c>
       <c r="C3">
-        <v>0.6947881001188638</v>
+        <v>0.817064391880854</v>
       </c>
       <c r="D3">
-        <v>0.7074536363540149</v>
+        <v>1.059940160795979</v>
       </c>
       <c r="E3">
-        <v>0.760168841053199</v>
+        <v>0.9694976260148345</v>
       </c>
       <c r="F3">
-        <v>0.2206037559425915</v>
+        <v>0.2230203913095753</v>
       </c>
       <c r="G3">
-        <v>6.994469345456044</v>
+        <v>17.60344290474935</v>
       </c>
       <c r="H3">
-        <v>0.4495165920475004</v>
+        <v>0.4869617703454803</v>
       </c>
       <c r="I3">
-        <v>1.192597994099707</v>
+        <v>1.315867286410806</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>1.42996494003683</v>
+        <v>1.094404773990106</v>
       </c>
       <c r="C4">
-        <v>0.6601448613356966</v>
+        <v>0.8282338573988225</v>
       </c>
       <c r="D4">
-        <v>2.793191585604096</v>
+        <v>1.094235634854534</v>
       </c>
       <c r="E4">
-        <v>1.953328719746201</v>
+        <v>0.9998454510254415</v>
       </c>
       <c r="F4">
-        <v>0.2194478453514866</v>
+        <v>0.2205257256254732</v>
       </c>
       <c r="G4">
-        <v>19.33960951796834</v>
+        <v>17.10588813287047</v>
       </c>
       <c r="H4">
-        <v>0.4220588668753303</v>
+        <v>0.4830823937545571</v>
       </c>
       <c r="I4">
-        <v>1.088674845258374</v>
+        <v>1.324331280542159</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -552,28 +552,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1.996460299414523</v>
+        <v>3.033430933567757</v>
       </c>
       <c r="C5">
-        <v>1.092757785619174</v>
+        <v>1.23990901284475</v>
       </c>
       <c r="D5">
-        <v>2.736347287303659</v>
+        <v>4.931792921527453</v>
       </c>
       <c r="E5">
-        <v>1.370599399400085</v>
+        <v>1.625813486291229</v>
       </c>
       <c r="F5">
-        <v>0.2456779663249583</v>
+        <v>0.2256347878509395</v>
       </c>
       <c r="G5">
-        <v>21.30404685577531</v>
+        <v>44.97871575319643</v>
       </c>
       <c r="H5">
-        <v>0.6184806288617882</v>
+        <v>0.625212374120106</v>
       </c>
       <c r="I5">
-        <v>2.084125723944851</v>
+        <v>3.362518003298649</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,28 +581,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>2.08390737862229</v>
+        <v>3.136203918568333</v>
       </c>
       <c r="C6">
-        <v>1.010377845384902</v>
+        <v>1.220756937352666</v>
       </c>
       <c r="D6">
-        <v>3.131963669795037</v>
+        <v>4.770471067538067</v>
       </c>
       <c r="E6">
-        <v>1.502928441985572</v>
+        <v>1.521097221801754</v>
       </c>
       <c r="F6">
-        <v>0.2487406546607157</v>
+        <v>0.2309679186209628</v>
       </c>
       <c r="G6">
-        <v>22.45572426345746</v>
+        <v>37.08813858341382</v>
       </c>
       <c r="H6">
-        <v>0.5867489008966303</v>
+        <v>0.6702265856256633</v>
       </c>
       <c r="I6">
-        <v>1.920924246630465</v>
+        <v>3.227745972752673</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -610,28 +610,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>2.373998339375346</v>
+        <v>4.694940535096802</v>
       </c>
       <c r="C7">
-        <v>1.31868759965837</v>
+        <v>0.828912223988761</v>
       </c>
       <c r="D7">
-        <v>2.965796303278076</v>
+        <v>13.64867367956687</v>
       </c>
       <c r="E7">
-        <v>1.249283225723926</v>
+        <v>2.9071025665899</v>
       </c>
       <c r="F7">
-        <v>0.2217737833370231</v>
+        <v>0.2294025360181328</v>
       </c>
       <c r="G7">
-        <v>22.54362358459068</v>
+        <v>117.0637238690478</v>
       </c>
       <c r="H7">
-        <v>0.6181449383236349</v>
+        <v>0.4341030713812441</v>
       </c>
       <c r="I7">
-        <v>2.792955213708054</v>
+        <v>2.255001646309192</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -639,28 +639,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>4.028098751281613</v>
+        <v>5.059314278662212</v>
       </c>
       <c r="C8">
-        <v>3.297213905991375</v>
+        <v>2.485732190069935</v>
       </c>
       <c r="D8">
-        <v>3.192709263270352</v>
+        <v>8.874425275846884</v>
       </c>
       <c r="E8">
-        <v>0.7926094816455366</v>
+        <v>1.754076696376622</v>
       </c>
       <c r="F8">
-        <v>0.7118018798856623</v>
+        <v>0.3561306336560384</v>
       </c>
       <c r="G8">
-        <v>25.62183889617705</v>
+        <v>82.33331165327446</v>
       </c>
       <c r="H8">
-        <v>2.128704120468718</v>
+        <v>1.402876944127113</v>
       </c>
       <c r="I8">
-        <v>5.132617887104221</v>
+        <v>4.850164320773981</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -668,28 +668,28 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>6.489367220625381</v>
+        <v>10.98908155287246</v>
       </c>
       <c r="C9">
-        <v>3.144427231096251</v>
+        <v>4.777913329157645</v>
       </c>
       <c r="D9">
-        <v>7.4238420067647</v>
+        <v>19.21165683102033</v>
       </c>
       <c r="E9">
-        <v>1.144000910161047</v>
+        <v>1.748249545568125</v>
       </c>
       <c r="F9">
-        <v>0.332226581787563</v>
+        <v>0.3331120520999711</v>
       </c>
       <c r="G9">
-        <v>38.3057516375878</v>
+        <v>144.4029186868943</v>
       </c>
       <c r="H9">
-        <v>1.507764425742873</v>
+        <v>2.136023014922321</v>
       </c>
       <c r="I9">
-        <v>8.032158602909977</v>
+        <v>11.15416904399529</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -697,28 +697,28 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>7.248884056718633</v>
+        <v>12.04565863111419</v>
       </c>
       <c r="C10">
-        <v>3.917659426849715</v>
+        <v>5.422660594577256</v>
       </c>
       <c r="D10">
-        <v>7.96032174285944</v>
+        <v>20.42287665991737</v>
       </c>
       <c r="E10">
-        <v>1.09814444272721</v>
+        <v>1.69545537403531</v>
       </c>
       <c r="F10">
-        <v>0.6118294506564428</v>
+        <v>0.4177298376824422</v>
       </c>
       <c r="G10">
-        <v>44.48110270305059</v>
+        <v>163.5807745031833</v>
       </c>
       <c r="H10">
-        <v>1.969699102907273</v>
+        <v>2.596160165334871</v>
       </c>
       <c r="I10">
-        <v>10.18791289859605</v>
+        <v>11.75713205783576</v>
       </c>
     </row>
   </sheetData>
